--- a/Reports/Cover/LaneMapReportCover1.xlsx
+++ b/Reports/Cover/LaneMapReportCover1.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="38">
   <si>
-    <t>KTC Topography Report</t>
-  </si>
-  <si>
-    <t>Lake Wales, FL</t>
+    <t>Plum</t>
+  </si>
+  <si>
+    <t>Lake Wales FL</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -133,16 +133,16 @@
     <t>Number of Lanes: 24</t>
   </si>
   <si>
-    <t>Lane Suface: Wood</t>
-  </si>
-  <si>
-    <t>Year  of Installation: 2000</t>
+    <t>Lane Suface: Synthetic</t>
+  </si>
+  <si>
+    <t>Year  of Installation: 2001</t>
   </si>
   <si>
     <t>Lane Suface Leveral and Underlayment: Wood</t>
   </si>
   <si>
-    <t>Underlayment Year Installation: 2000</t>
+    <t>Underlayment Year Installation: 2005</t>
   </si>
   <si>
     <t>Head Area Replaced?: No</t>
@@ -151,7 +151,7 @@
     <t>Approach Surface: Wood</t>
   </si>
   <si>
-    <t>Pin Decks: DBA</t>
+    <t>Pin Decks: AMF</t>
   </si>
   <si>
     <t>Pinsetters: AMF</t>

--- a/Reports/Cover/LaneMapReportCover1.xlsx
+++ b/Reports/Cover/LaneMapReportCover1.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="38">
   <si>
-    <t>Plum</t>
-  </si>
-  <si>
-    <t>Lake Wales FL</t>
+    <t>ABC Bowling Center</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -133,16 +133,16 @@
     <t>Number of Lanes: 24</t>
   </si>
   <si>
-    <t>Lane Suface: Synthetic</t>
-  </si>
-  <si>
-    <t>Year  of Installation: 2001</t>
+    <t>Lane Suface: Wood</t>
+  </si>
+  <si>
+    <t>Year  of Installation: 2000</t>
   </si>
   <si>
     <t>Lane Suface Leveral and Underlayment: Wood</t>
   </si>
   <si>
-    <t>Underlayment Year Installation: 2005</t>
+    <t>Underlayment Year Installation: 2001</t>
   </si>
   <si>
     <t>Head Area Replaced?: No</t>
@@ -151,7 +151,7 @@
     <t>Approach Surface: Wood</t>
   </si>
   <si>
-    <t>Pin Decks: AMF</t>
+    <t>Pin Decks: DBA</t>
   </si>
   <si>
     <t>Pinsetters: AMF</t>

--- a/Reports/Cover/LaneMapReportCover1.xlsx
+++ b/Reports/Cover/LaneMapReportCover1.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37" count="38">
   <si>
-    <t>Plum 1-24</t>
-  </si>
-  <si>
-    <t>Lake Wales FL</t>
+    <t>KTC Topography Report</t>
+  </si>
+  <si>
+    <t>Lake Wales, FL</t>
   </si>
   <si>
     <t>Introduction</t>
@@ -133,16 +133,16 @@
     <t>Number of Lanes: 24</t>
   </si>
   <si>
-    <t>Lane Suface: Synthetic</t>
-  </si>
-  <si>
-    <t>Year  of Installation: 2001</t>
+    <t>Lane Suface: Wood</t>
+  </si>
+  <si>
+    <t>Year  of Installation: 2000</t>
   </si>
   <si>
     <t>Lane Suface Leveral and Underlayment: Wood</t>
   </si>
   <si>
-    <t>Underlayment Year Installation: 2005</t>
+    <t>Underlayment Year Installation: 2000</t>
   </si>
   <si>
     <t>Head Area Replaced?: No</t>
@@ -151,7 +151,7 @@
     <t>Approach Surface: Wood</t>
   </si>
   <si>
-    <t>Pin Decks: AMF</t>
+    <t>Pin Decks: DBA</t>
   </si>
   <si>
     <t>Pinsetters: AMF</t>
